--- a/Connector list.xlsx
+++ b/Connector list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\GitHub\WK462_WK465-Connectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D229168-C00A-4447-8828-A29194DCACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097CDF2-A809-4093-A1A2-71909D346377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47D56436-A20B-4B6A-91AB-812DD232877F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="76">
   <si>
     <t>ID/Number</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Gold/Silver plating</t>
   </si>
   <si>
-    <t>Number of pins</t>
-  </si>
-  <si>
     <t>WK 465 15</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Connection type (S = Soldered, W = Wirewrap, N = PCB mount)</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -165,6 +159,114 @@
   </si>
   <si>
     <t>WK 465 27</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>WK 462 00</t>
+  </si>
+  <si>
+    <t>WK 462 01</t>
+  </si>
+  <si>
+    <t>WK 462 02</t>
+  </si>
+  <si>
+    <t>WK 462 03</t>
+  </si>
+  <si>
+    <t>WK 462 04</t>
+  </si>
+  <si>
+    <t>WK 462 63</t>
+  </si>
+  <si>
+    <t>WK 462 64</t>
+  </si>
+  <si>
+    <t>WK 462 65</t>
+  </si>
+  <si>
+    <t>WK 462 86</t>
+  </si>
+  <si>
+    <t>WK 462 87</t>
+  </si>
+  <si>
+    <t>WK 462 79</t>
+  </si>
+  <si>
+    <t>WK 462 80</t>
+  </si>
+  <si>
+    <t>WK 462 81</t>
+  </si>
+  <si>
+    <t>WK 462 82</t>
+  </si>
+  <si>
+    <t>WK 465 13</t>
+  </si>
+  <si>
+    <t>WK 465 14</t>
+  </si>
+  <si>
+    <t>WK 465 44</t>
+  </si>
+  <si>
+    <t>WK 465 45</t>
+  </si>
+  <si>
+    <t>WK 465 96</t>
+  </si>
+  <si>
+    <t>WK 465 97</t>
+  </si>
+  <si>
+    <t>WK 465 41</t>
+  </si>
+  <si>
+    <t>WK 465 42</t>
+  </si>
+  <si>
+    <t>WK 465 43</t>
+  </si>
+  <si>
+    <t>WK 465 11</t>
+  </si>
+  <si>
+    <t>WK 465 12</t>
+  </si>
+  <si>
+    <t>WK 465 10</t>
+  </si>
+  <si>
+    <t>WK 465 86</t>
+  </si>
+  <si>
+    <t>Number of pins in use</t>
+  </si>
+  <si>
+    <t>Which pins are populated?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Overall pin count
+(populated and not populated)</t>
+  </si>
+  <si>
+    <t>Connection type
+(S = Soldered, W = Wirewrap, N = PCB mount)</t>
+  </si>
+  <si>
+    <t>Housing construction
+(A = Numbering from Left to right, B = opposite)</t>
   </si>
 </sst>
 </file>
@@ -208,8 +310,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -524,479 +629,1475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD275535-B63F-48AD-B4D7-5459FD77A98D}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>24</v>
+      </c>
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>24</v>
+      </c>
+      <c r="F38">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>24</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>24</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
+      <c r="F46">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D50" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
+      <c r="E50">
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>36</v>
+      </c>
+      <c r="F51">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
+      </c>
+      <c r="F54">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <v>24</v>
+      </c>
+      <c r="F55">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>24</v>
+      </c>
+      <c r="F56">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Connector list.xlsx
+++ b/Connector list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\GitHub\WK462_WK465-Connectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097CDF2-A809-4093-A1A2-71909D346377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC648FBB-C33E-4A61-BB43-9C583CD8ADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47D56436-A20B-4B6A-91AB-812DD232877F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{47D56436-A20B-4B6A-91AB-812DD232877F}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="84">
   <si>
     <t>ID/Number</t>
   </si>
@@ -267,6 +267,30 @@
   <si>
     <t>Housing construction
 (A = Numbering from Left to right, B = opposite)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>2,10,12,16,20,24,26,30,32,34,36</t>
+  </si>
+  <si>
+    <t>2,4,6,8,10,12,14,16,18,20,22,24</t>
+  </si>
+  <si>
+    <t>1,4,7,9,11,13,16,19,22,25,28,31,33,36</t>
+  </si>
+  <si>
+    <t>Even only</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
   </si>
 </sst>
 </file>
@@ -310,10 +334,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,19 +659,19 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -697,13 +724,13 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2">
@@ -711,25 +738,31 @@
       </c>
       <c r="F2">
         <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3">
@@ -737,25 +770,31 @@
       </c>
       <c r="F3">
         <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4">
@@ -763,6 +802,9 @@
       </c>
       <c r="F4">
         <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -775,13 +817,13 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5">
@@ -789,6 +831,9 @@
       </c>
       <c r="F5">
         <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -801,13 +846,13 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6">
@@ -815,6 +860,9 @@
       </c>
       <c r="F6">
         <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -827,13 +875,13 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7">
@@ -841,6 +889,9 @@
       </c>
       <c r="F7">
         <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -853,13 +904,13 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8">
@@ -868,6 +919,9 @@
       <c r="F8">
         <v>12</v>
       </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>
@@ -879,13 +933,13 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9">
@@ -893,6 +947,9 @@
       </c>
       <c r="F9">
         <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
@@ -905,13 +962,13 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10">
@@ -919,6 +976,9 @@
       </c>
       <c r="F10">
         <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -931,13 +991,13 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11">
@@ -945,25 +1005,31 @@
       </c>
       <c r="F11">
         <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E12">
@@ -971,25 +1037,31 @@
       </c>
       <c r="F12">
         <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E13">
@@ -997,6 +1069,9 @@
       </c>
       <c r="F13">
         <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1009,13 +1084,13 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14">
@@ -1023,6 +1098,9 @@
       </c>
       <c r="F14">
         <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -1035,13 +1113,13 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E15">
@@ -1049,6 +1127,9 @@
       </c>
       <c r="F15">
         <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -1061,13 +1142,13 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E16">
@@ -1075,6 +1156,9 @@
       </c>
       <c r="F16">
         <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -1090,13 +1174,13 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E17">
@@ -1104,6 +1188,9 @@
       </c>
       <c r="F17">
         <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
@@ -1116,13 +1203,13 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E18">
@@ -1130,6 +1217,9 @@
       </c>
       <c r="F18">
         <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
@@ -1142,13 +1232,13 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E19">
@@ -1156,6 +1246,9 @@
       </c>
       <c r="F19">
         <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
@@ -1168,13 +1261,13 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E20">
@@ -1182,6 +1275,9 @@
       </c>
       <c r="F20">
         <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
@@ -1194,13 +1290,13 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E21">
@@ -1208,6 +1304,9 @@
       </c>
       <c r="F21">
         <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -1220,13 +1319,13 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E22">
@@ -1234,6 +1333,9 @@
       </c>
       <c r="F22">
         <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -1246,13 +1348,13 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E23">
@@ -1260,6 +1362,9 @@
       </c>
       <c r="F23">
         <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -1272,13 +1377,13 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E24">
@@ -1286,6 +1391,9 @@
       </c>
       <c r="F24">
         <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -1298,13 +1406,13 @@
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E25">
@@ -1312,6 +1420,9 @@
       </c>
       <c r="F25">
         <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -1324,13 +1435,13 @@
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E26">
@@ -1338,6 +1449,9 @@
       </c>
       <c r="F26">
         <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>30</v>
@@ -1350,13 +1464,13 @@
       <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E28">
@@ -1364,6 +1478,9 @@
       </c>
       <c r="F28">
         <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
       </c>
       <c r="H28" t="s">
         <v>31</v>
@@ -1376,13 +1493,13 @@
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E29">
@@ -1390,6 +1507,9 @@
       </c>
       <c r="F29">
         <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
@@ -1402,13 +1522,13 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E30">
@@ -1416,6 +1536,9 @@
       </c>
       <c r="F30">
         <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
       </c>
       <c r="H30" t="s">
         <v>31</v>
@@ -1428,13 +1551,13 @@
       <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E31">
@@ -1442,6 +1565,9 @@
       </c>
       <c r="F31">
         <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -1454,13 +1580,13 @@
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E32">
@@ -1468,6 +1594,9 @@
       </c>
       <c r="F32">
         <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
       </c>
       <c r="H32" t="s">
         <v>29</v>
@@ -1480,13 +1609,13 @@
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E33">
@@ -1494,6 +1623,9 @@
       </c>
       <c r="F33">
         <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -1506,13 +1638,13 @@
       <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E34">
@@ -1520,6 +1652,9 @@
       </c>
       <c r="F34">
         <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -1532,13 +1667,13 @@
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E35">
@@ -1546,6 +1681,9 @@
       </c>
       <c r="F35">
         <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -1558,13 +1696,13 @@
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E36">
@@ -1572,6 +1710,9 @@
       </c>
       <c r="F36">
         <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -1584,13 +1725,13 @@
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E37">
@@ -1598,6 +1739,9 @@
       </c>
       <c r="F37">
         <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -1610,13 +1754,13 @@
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E38">
@@ -1624,6 +1768,9 @@
       </c>
       <c r="F38">
         <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
       </c>
       <c r="H38" t="s">
         <v>30</v>
@@ -1636,13 +1783,13 @@
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E39">
@@ -1650,6 +1797,9 @@
       </c>
       <c r="F39">
         <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
       </c>
       <c r="H39" t="s">
         <v>30</v>
@@ -1662,13 +1812,13 @@
       <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E40">
@@ -1676,6 +1826,9 @@
       </c>
       <c r="F40">
         <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
       </c>
       <c r="H40" t="s">
         <v>30</v>
@@ -1688,13 +1841,13 @@
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E41">
@@ -1702,6 +1855,9 @@
       </c>
       <c r="F41">
         <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -1714,13 +1870,13 @@
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E42">
@@ -1728,6 +1884,9 @@
       </c>
       <c r="F42">
         <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -1740,13 +1899,13 @@
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E43">
@@ -1754,6 +1913,9 @@
       </c>
       <c r="F43">
         <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
       </c>
       <c r="H43" t="s">
         <v>31</v>
@@ -1766,13 +1928,13 @@
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E44">
@@ -1780,6 +1942,9 @@
       </c>
       <c r="F44">
         <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
       </c>
       <c r="H44" t="s">
         <v>31</v>
@@ -1792,13 +1957,13 @@
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E45">
@@ -1806,6 +1971,9 @@
       </c>
       <c r="F45">
         <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
       </c>
       <c r="H45" t="s">
         <v>31</v>
@@ -1818,13 +1986,13 @@
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
         <v>3</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E46">
@@ -1832,6 +2000,9 @@
       </c>
       <c r="F46">
         <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
       </c>
       <c r="H46" t="s">
         <v>31</v>
@@ -1844,13 +2015,13 @@
       <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E47">
@@ -1858,6 +2029,9 @@
       </c>
       <c r="F47">
         <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
       </c>
       <c r="H47" t="s">
         <v>30</v>
@@ -1870,13 +2044,13 @@
       <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E48">
@@ -1884,6 +2058,9 @@
       </c>
       <c r="F48">
         <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
       </c>
       <c r="H48" t="s">
         <v>30</v>
@@ -1896,13 +2073,13 @@
       <c r="A49" t="s">
         <v>64</v>
       </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E49">
@@ -1910,6 +2087,9 @@
       </c>
       <c r="F49">
         <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
       </c>
       <c r="H49" t="s">
         <v>30</v>
@@ -1922,13 +2102,13 @@
       <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E50">
@@ -1936,6 +2116,9 @@
       </c>
       <c r="F50">
         <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
       </c>
       <c r="H50" t="s">
         <v>30</v>
@@ -1948,13 +2131,13 @@
       <c r="A51" t="s">
         <v>66</v>
       </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E51">
@@ -1962,6 +2145,9 @@
       </c>
       <c r="F51">
         <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
       </c>
       <c r="H51" t="s">
         <v>30</v>
@@ -1974,13 +2160,13 @@
       <c r="A52" t="s">
         <v>68</v>
       </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E52">
@@ -1988,6 +2174,9 @@
       </c>
       <c r="F52">
         <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
       </c>
       <c r="H52" t="s">
         <v>30</v>
@@ -2000,13 +2189,13 @@
       <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E53">
@@ -2014,6 +2203,9 @@
       </c>
       <c r="F53">
         <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
       </c>
       <c r="H53" t="s">
         <v>31</v>
@@ -2026,13 +2218,13 @@
       <c r="A54" t="s">
         <v>67</v>
       </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E54">
@@ -2040,6 +2232,9 @@
       </c>
       <c r="F54">
         <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
       </c>
       <c r="H54" t="s">
         <v>30</v>
@@ -2052,13 +2247,13 @@
       <c r="A55" t="s">
         <v>65</v>
       </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E55">
@@ -2066,6 +2261,9 @@
       </c>
       <c r="F55">
         <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
       </c>
       <c r="H55" t="s">
         <v>30</v>
@@ -2078,13 +2276,13 @@
       <c r="A56" t="s">
         <v>66</v>
       </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E56">
@@ -2092,6 +2290,9 @@
       </c>
       <c r="F56">
         <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
       </c>
       <c r="H56" t="s">
         <v>30</v>
